--- a/4.Analysis/Data/raw/day2/phase_007/invalid_day2_phase_007.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_007/invalid_day2_phase_007.xlsx
@@ -12,90 +12,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ParticipantID</t>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct_recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend_recognition</t>
   </si>
 </sst>
 </file>
@@ -512,6 +545,39 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
